--- a/Analysis/PostTask.xlsx
+++ b/Analysis/PostTask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/euan/Development/Touchless_Slider_Experiment/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350B9E62-A645-A646-A997-304C88D182B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADEECA5-2A32-6342-9D98-780822A75467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="500" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -258,8 +264,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:S61" totalsRowShown="0">
-  <autoFilter ref="A1:S61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:S85" totalsRowShown="0">
+  <autoFilter ref="A1:S85" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="17"/>
@@ -582,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4192,6 +4198,1422 @@
         <v>8</v>
       </c>
     </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>44573.665810185201</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44573.668055555601</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62">
+        <v>6</v>
+      </c>
+      <c r="O62">
+        <v>4</v>
+      </c>
+      <c r="P62">
+        <v>3</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>44573.669074074103</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44573.6714699074</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N63">
+        <v>8</v>
+      </c>
+      <c r="O63">
+        <v>6</v>
+      </c>
+      <c r="P63">
+        <v>3</v>
+      </c>
+      <c r="Q63">
+        <v>4</v>
+      </c>
+      <c r="R63">
+        <v>6</v>
+      </c>
+      <c r="S63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44573.6717824074</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44573.673344907402</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>4</v>
+      </c>
+      <c r="P64">
+        <v>4</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>44573.673680555599</v>
+      </c>
+      <c r="C65" s="1">
+        <v>44573.675706018497</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65">
+        <v>3</v>
+      </c>
+      <c r="Q65">
+        <v>4</v>
+      </c>
+      <c r="R65">
+        <v>5</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>44573.676134259302</v>
+      </c>
+      <c r="C66" s="1">
+        <v>44573.677893518499</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+      <c r="P66">
+        <v>3</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>5</v>
+      </c>
+      <c r="S66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>44573.678101851903</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44573.679247685199</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+      <c r="R67">
+        <v>3</v>
+      </c>
+      <c r="S67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>44573.680347222202</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44573.682465277801</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68">
+        <v>3</v>
+      </c>
+      <c r="P68">
+        <v>3</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>4</v>
+      </c>
+      <c r="S68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>44573.684178240699</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44573.684745370403</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69">
+        <v>6</v>
+      </c>
+      <c r="O69">
+        <v>6</v>
+      </c>
+      <c r="P69">
+        <v>4</v>
+      </c>
+      <c r="Q69">
+        <v>5</v>
+      </c>
+      <c r="R69">
+        <v>6</v>
+      </c>
+      <c r="S69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>44573.6867361111</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44573.687962962998</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N70">
+        <v>7</v>
+      </c>
+      <c r="O70">
+        <v>5</v>
+      </c>
+      <c r="P70">
+        <v>3</v>
+      </c>
+      <c r="Q70">
+        <v>6</v>
+      </c>
+      <c r="R70">
+        <v>5</v>
+      </c>
+      <c r="S70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>44573.688692129603</v>
+      </c>
+      <c r="C71" s="1">
+        <v>44573.691168981502</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N71">
+        <v>6</v>
+      </c>
+      <c r="O71">
+        <v>4</v>
+      </c>
+      <c r="P71">
+        <v>3</v>
+      </c>
+      <c r="Q71">
+        <v>4</v>
+      </c>
+      <c r="R71">
+        <v>5</v>
+      </c>
+      <c r="S71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>44573.691273148201</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44573.6953125</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72">
+        <v>6</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>4</v>
+      </c>
+      <c r="R72">
+        <v>5</v>
+      </c>
+      <c r="S72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>44573.695486111101</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44573.697395833296</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>3</v>
+      </c>
+      <c r="Q73">
+        <v>4</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>44573.705150463</v>
+      </c>
+      <c r="C74" s="1">
+        <v>44573.705289351798</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74">
+        <v>3</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>10</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>44573.706724536998</v>
+      </c>
+      <c r="C75" s="1">
+        <v>44573.707638888904</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>10</v>
+      </c>
+      <c r="R75">
+        <v>3</v>
+      </c>
+      <c r="S75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>44573.707418981503</v>
+      </c>
+      <c r="C76" s="1">
+        <v>44573.710509259297</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>10</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>44573.710729166698</v>
+      </c>
+      <c r="C77" s="1">
+        <v>44573.7130092593</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>10</v>
+      </c>
+      <c r="R77">
+        <v>4</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>44573.713587963</v>
+      </c>
+      <c r="C78" s="1">
+        <v>44573.716979166697</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>8</v>
+      </c>
+      <c r="R78">
+        <v>4</v>
+      </c>
+      <c r="S78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>44573.717812499999</v>
+      </c>
+      <c r="C79" s="1">
+        <v>44573.720578703702</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79">
+        <v>4</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>9</v>
+      </c>
+      <c r="R79">
+        <v>4</v>
+      </c>
+      <c r="S79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>44573.720810185201</v>
+      </c>
+      <c r="C80" s="1">
+        <v>44573.723298611098</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>9</v>
+      </c>
+      <c r="R80">
+        <v>4</v>
+      </c>
+      <c r="S80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>44573.723692129599</v>
+      </c>
+      <c r="C81" s="1">
+        <v>44573.728969907403</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81">
+        <v>5</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>9</v>
+      </c>
+      <c r="R81">
+        <v>5</v>
+      </c>
+      <c r="S81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>44573.731041666702</v>
+      </c>
+      <c r="C82" s="1">
+        <v>44573.732974537001</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82">
+        <v>5</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>7</v>
+      </c>
+      <c r="R82">
+        <v>5</v>
+      </c>
+      <c r="S82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>44573.735567129603</v>
+      </c>
+      <c r="C83" s="1">
+        <v>44573.736342592601</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83">
+        <v>6</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>7</v>
+      </c>
+      <c r="R83">
+        <v>5</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>44573.736504629604</v>
+      </c>
+      <c r="C84" s="1">
+        <v>44573.7403009259</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84">
+        <v>6</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>8</v>
+      </c>
+      <c r="R84">
+        <v>6</v>
+      </c>
+      <c r="S84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>44573.740590277797</v>
+      </c>
+      <c r="C85" s="1">
+        <v>44573.7422800926</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85">
+        <v>4</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>7</v>
+      </c>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
